--- a/reports/air_raw_data/date_direction_price_weigth.xlsx
+++ b/reports/air_raw_data/date_direction_price_weigth.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>189786.595</v>
+        <v>223793</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>63141.8</v>
+        <v>63331</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1150.9</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>175756.9</v>
+        <v>195025</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49867.9</v>
+        <v>50477</v>
       </c>
     </row>
     <row r="7">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>269.6</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>191185</v>
+        <v>220063</v>
       </c>
     </row>
     <row r="9">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>82511.84999999999</v>
+        <v>87076</v>
       </c>
     </row>
     <row r="10">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>241.4</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>212060.9</v>
+        <v>228539</v>
       </c>
     </row>
     <row r="12">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>92376.24000000001</v>
+        <v>93440</v>
       </c>
     </row>
     <row r="13">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>149782.2</v>
+        <v>163706</v>
       </c>
     </row>
     <row r="15">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>69160.98199999999</v>
+        <v>70110</v>
       </c>
     </row>
     <row r="16">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>222648.86</v>
+        <v>234790</v>
       </c>
     </row>
     <row r="18">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>54831.35</v>
+        <v>55108</v>
       </c>
     </row>
     <row r="19">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>160844.4</v>
+        <v>177739</v>
       </c>
     </row>
     <row r="21">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>57725.144</v>
+        <v>57756</v>
       </c>
     </row>
     <row r="22">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>208013.25</v>
+        <v>230260</v>
       </c>
     </row>
     <row r="24">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>74389.76999999999</v>
+        <v>75075</v>
       </c>
     </row>
     <row r="25">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>285907.7</v>
+        <v>319227</v>
       </c>
     </row>
     <row r="27">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>34423.1</v>
+        <v>34691</v>
       </c>
     </row>
     <row r="28">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>231622</v>
+        <v>261115</v>
       </c>
     </row>
     <row r="30">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>83957.625</v>
+        <v>88606</v>
       </c>
     </row>
     <row r="31">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>395608.5</v>
+        <v>409024</v>
       </c>
     </row>
     <row r="33">
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>77795.09</v>
+        <v>119822</v>
       </c>
     </row>
     <row r="34">
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>179248.86</v>
+        <v>190661</v>
       </c>
     </row>
     <row r="36">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>75236.12999999999</v>
+        <v>76339</v>
       </c>
     </row>
     <row r="37">
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>127648.16</v>
+        <v>139334</v>
       </c>
     </row>
     <row r="39">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>61718.1</v>
+        <v>63078</v>
       </c>
     </row>
     <row r="40">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>9104</v>
+        <v>9109</v>
       </c>
     </row>
     <row r="41">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>124170.5</v>
+        <v>141179</v>
       </c>
     </row>
     <row r="42">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>63868</v>
+        <v>64343</v>
       </c>
     </row>
     <row r="43">
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>14013</v>
+        <v>14399</v>
       </c>
     </row>
     <row r="44">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>209481.5</v>
+        <v>225419</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>132086.36</v>
+        <v>133033</v>
       </c>
     </row>
     <row r="46">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>6236.4</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="47">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>155417.26</v>
+        <v>175212</v>
       </c>
     </row>
     <row r="48">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>111137.57</v>
+        <v>112926</v>
       </c>
     </row>
     <row r="49">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2058.5</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="50">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>222577.67</v>
+        <v>238573</v>
       </c>
     </row>
     <row r="51">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>136711.93</v>
+        <v>137984</v>
       </c>
     </row>
     <row r="52">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3465</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="53">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>191260.9</v>
+        <v>207092</v>
       </c>
     </row>
     <row r="54">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>75392.97000000002</v>
+        <v>76063</v>
       </c>
     </row>
     <row r="55">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3750.1</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="56">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>146455.79</v>
+        <v>164583</v>
       </c>
     </row>
     <row r="57">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>99631.5</v>
+        <v>102035</v>
       </c>
     </row>
     <row r="58">
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>14213.4</v>
+        <v>14376</v>
       </c>
     </row>
     <row r="59">
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>225492.87</v>
+        <v>238688</v>
       </c>
     </row>
     <row r="60">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>126378.58</v>
+        <v>127383</v>
       </c>
     </row>
     <row r="61">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5715.16</v>
+        <v>6469</v>
       </c>
     </row>
     <row r="62">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>138849.6</v>
+        <v>149365</v>
       </c>
     </row>
     <row r="63">
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>101670.59</v>
+        <v>102058</v>
       </c>
     </row>
     <row r="64">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>7748.4</v>
+        <v>7864</v>
       </c>
     </row>
     <row r="65">
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>185912.05</v>
+        <v>215848</v>
       </c>
     </row>
     <row r="66">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>97617.39999999999</v>
+        <v>102696</v>
       </c>
     </row>
     <row r="67">
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>6045.299999999999</v>
+        <v>6046</v>
       </c>
     </row>
     <row r="68">
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>191493.76</v>
+        <v>209506</v>
       </c>
     </row>
     <row r="69">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>80024.64999999999</v>
+        <v>83196</v>
       </c>
     </row>
     <row r="70">
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1221.9</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="71">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>150773.1</v>
+        <v>164401</v>
       </c>
     </row>
     <row r="72">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>90682.31999999999</v>
+        <v>95206</v>
       </c>
     </row>
     <row r="73">
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2626.7</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="74">
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>177777</v>
+        <v>195873</v>
       </c>
     </row>
     <row r="75">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>124133.3</v>
+        <v>128540</v>
       </c>
     </row>
     <row r="76">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>40213.5</v>
+        <v>40403</v>
       </c>
     </row>
     <row r="77">
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>182465.68</v>
+        <v>202797</v>
       </c>
     </row>
     <row r="78">
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>111924.26</v>
+        <v>113572</v>
       </c>
     </row>
     <row r="79">
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>961</v>
+        <v>975</v>
       </c>
     </row>
     <row r="80">
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>213082.37</v>
+        <v>238858</v>
       </c>
     </row>
     <row r="81">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>164439.47</v>
+        <v>165173</v>
       </c>
     </row>
     <row r="82">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>699</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
